--- a/TP4_Cuadripolos/TestDeCorrientesCambiadasCuadripolos.xlsx
+++ b/TP4_Cuadripolos/TestDeCorrientesCambiadasCuadripolos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanbautista/Desktop/Teoria_De_Circuitos/Labo_TC1/TP4_Cuadripolos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC3DE80-AE6D-0D42-B974-5DB8FADFA0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B70CF26-E0D4-1B49-80AF-12A1BA6DAC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="660" windowWidth="15000" windowHeight="18980" xr2:uid="{5B2A29B3-2CF8-994E-8850-D83F2CE44699}"/>
+    <workbookView xWindow="3200" yWindow="860" windowWidth="22920" windowHeight="17500" xr2:uid="{5B2A29B3-2CF8-994E-8850-D83F2CE44699}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +265,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -525,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -552,9 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -570,6 +574,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831856AF-2CD5-6A4F-8D20-CCA7C8A9234E}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="65" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,20 +960,20 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="O2" s="38" t="s">
+      <c r="M2" s="36"/>
+      <c r="O2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="38"/>
+      <c r="P2" s="36"/>
     </row>
     <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="27" t="str">
         <f>IMPRODUCT(1.39, IMEXP("0+" &amp; ((-22)*PI()/180) &amp; "i"))</f>
         <v>1,28878555784784-0,520703164848118i</v>
       </c>
@@ -1016,11 +1024,11 @@
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29" t="str">
+      <c r="B4" s="27" t="str">
         <f>IMPRODUCT(0.95, IMEXP("0+" &amp; ((-41)*PI()/180) &amp; "i"))</f>
         <v>0,716974101211633-0,623256077540982i</v>
       </c>
-      <c r="C4" s="29" t="str">
+      <c r="C4" s="27" t="str">
         <f>IMPRODUCT(1.14, IMEXP("0+" &amp; ((-43)*PI()/180) &amp; "i"))</f>
         <v>0,833743219845854-0,777478130471249i</v>
       </c>
@@ -1086,7 +1094,7 @@
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="29" t="str">
+      <c r="B8" s="27" t="str">
         <f>IMPRODUCT(1.39, IMEXP("0+" &amp; ((-22)*PI()/180) &amp; "i"))</f>
         <v>1,28878555784784-0,520703164848118i</v>
       </c>
@@ -1105,7 +1113,7 @@
         <f>IMDIV(B8,C8)</f>
         <v>1,46800946372627+0,653599923555336i</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="40">
         <f>-IMDIV(B9,E9)</f>
         <v>107.037037037037</v>
       </c>
@@ -1125,7 +1133,7 @@
       <c r="C9" s="10">
         <v>0</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="28">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="E9" s="13">
@@ -1133,11 +1141,11 @@
         <v>-7.9411764705882362E-3</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="27" t="str">
+      <c r="G9" s="26" t="str">
         <f>IMDIV(D8,C8)</f>
         <v>0,00631641003738218+0,00752760435434833i</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="41">
         <f>-IMDIV(D9,E9)</f>
         <v>1.07037037037037</v>
       </c>
@@ -1181,7 +1189,7 @@
       <c r="C13" s="5">
         <v>0</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="28">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="E13" s="13">
@@ -1192,7 +1200,7 @@
         <f>IMDIV(D13,B13)</f>
         <v>0,01</v>
       </c>
-      <c r="H13" s="21" t="str">
+      <c r="H13" s="38" t="str">
         <f>IMDIV(D14,C14)</f>
         <v>-0,00789926284142395-0,000552370267204607i</v>
       </c>
@@ -1213,11 +1221,11 @@
         <f>IMPRODUCT((-0.035)/6.8, IMEXP("0+" &amp; ((-20)*PI()/180) &amp; "i"))</f>
         <v>-0,00483665319522159+0,00176039779652918i</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="29">
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="23" t="str">
+      <c r="G14" s="39" t="str">
         <f>IMDIV(E13,B13)</f>
         <v>-0,00934256055363322</v>
       </c>
@@ -1243,10 +1251,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="19"/>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -1269,20 +1277,20 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="1"/>
-      <c r="L19" s="38" t="s">
+      <c r="L19" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="38"/>
-      <c r="O19" s="38" t="s">
+      <c r="M19" s="36"/>
+      <c r="O19" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="38"/>
+      <c r="P19" s="36"/>
     </row>
     <row r="20" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="32" t="str">
+      <c r="B20" s="30" t="str">
         <f>IMPRODUCT(1.875, IMEXP("0+" &amp; ((-30)*PI()/180) &amp; "i"))</f>
         <v>1,62379763209582-0,9375i</v>
       </c>
@@ -1333,11 +1341,11 @@
       <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="33" t="str">
+      <c r="B21" s="31" t="str">
         <f>IMPRODUCT(1.18, IMEXP("0+" &amp; ((-58)*PI()/180) &amp; "i"))</f>
         <v>0,625304731795183-1,00069675346458i</v>
       </c>
-      <c r="C21" s="33" t="str">
+      <c r="C21" s="31" t="str">
         <f>IMPRODUCT(2.625, IMEXP("0+" &amp; ((-17)*PI()/180) &amp; "i"))</f>
         <v>2,51029998440297-0,767475724897185i</v>
       </c>
@@ -1403,7 +1411,7 @@
       <c r="A25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="32" t="str">
+      <c r="B25" s="30" t="str">
         <f>IMPRODUCT(1.875, IMEXP("0+" &amp; ((-30)*PI()/180) &amp; "i"))</f>
         <v>1,62379763209582-0,9375i</v>
       </c>
@@ -1422,7 +1430,7 @@
         <f>IMDIV(B25,C25)</f>
         <v>1,32442138928839+0,704207344178832i</v>
       </c>
-      <c r="H25" s="26" t="str">
+      <c r="H25" s="40" t="str">
         <f>IMPRODUCT(IMDIV(B26,E26),-1)</f>
         <v>468,206808519501+143,145186632252i</v>
       </c>
@@ -1445,7 +1453,7 @@
       <c r="C26" s="10">
         <v>0</v>
       </c>
-      <c r="D26" s="30" t="str">
+      <c r="D26" s="28" t="str">
         <f>IMPRODUCT(0.008, IMEXP("0+" &amp; ((4)*PI()/180) &amp; "i"))</f>
         <v>0,00798051240207859+0,000558051789953002i</v>
       </c>
@@ -1454,11 +1462,11 @@
         <v>-0,00308334767626994+0,0020023493934376i</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="27" t="str">
+      <c r="G26" s="26" t="str">
         <f>IMDIV(D25,C25)</f>
         <v>0,0027047568751405+0,00580036983703456i</v>
       </c>
-      <c r="H26" s="28" t="str">
+      <c r="H26" s="41" t="str">
         <f>IMPRODUCT(-1,IMDIV(D26,E26))</f>
         <v>1,73783086986291+1,30954949037886i</v>
       </c>
@@ -1507,7 +1515,7 @@
       <c r="C30" s="5">
         <v>0</v>
       </c>
-      <c r="D30" s="30" t="str">
+      <c r="D30" s="28" t="str">
         <f>IMPRODUCT(0.008, IMEXP("0+" &amp; ((4)*PI()/180) &amp; "i"))</f>
         <v>0,00798051240207859+0,000558051789953002i</v>
       </c>
@@ -1519,7 +1527,7 @@
         <f>IMDIV(D30,B30)</f>
         <v>0,00417641164793738+0,00152008952589187i</v>
       </c>
-      <c r="H30" s="21" t="str">
+      <c r="H30" s="38" t="str">
         <f>IMDIV(D31,C31)</f>
         <v>-0,00262732804846232+0,000322595320778334i</v>
       </c>
@@ -1540,11 +1548,11 @@
         <f>IMPRODUCT((-0.045)/6.8, IMEXP("0+" &amp; ((-11)*PI()/180) &amp; "i"))</f>
         <v>-0,00649606224340366+0,00126270658705067i</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="29">
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="23" t="str">
+      <c r="G31" s="39" t="str">
         <f>IMDIV(E30,B30)</f>
         <v>-0,0019532368381598+0,000597164429580754i</v>
       </c>
@@ -1557,11 +1565,11 @@
     </row>
     <row r="33" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="32" t="s">
         <v>24</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="32" t="s">
         <v>41</v>
       </c>
       <c r="K34" s="1"/>
@@ -1600,14 +1608,14 @@
     </row>
     <row r="37" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="34" t="s">
+      <c r="G38" s="32" t="s">
         <v>25</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="J38" s="35" t="s">
+      <c r="J38" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="K38" s="36"/>
+      <c r="K38" s="34"/>
     </row>
     <row r="39" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G39" s="6" t="s">
@@ -1639,11 +1647,11 @@
     </row>
     <row r="42" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G43" s="34" t="s">
+      <c r="G43" s="32" t="s">
         <v>43</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="J43" s="34" t="s">
+      <c r="J43" s="32" t="s">
         <v>40</v>
       </c>
       <c r="K43" s="1"/>
@@ -1653,7 +1661,7 @@
         <f>IMSUM(G13,G30)</f>
         <v>0,0141764116479374+0,00152008952589187i</v>
       </c>
-      <c r="H44" s="12" t="str">
+      <c r="H44" s="38" t="str">
         <f>IMSUM(H13,H30)</f>
         <v>-0,0105265908898863-0,000229774946426273i</v>
       </c>
@@ -1665,7 +1673,7 @@
       </c>
     </row>
     <row r="45" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G45" s="9" t="str">
+      <c r="G45" s="39" t="str">
         <f>IMSUM(G14,G31)</f>
         <v>-0,011295797391793+0,000597164429580754i</v>
       </c>
@@ -1682,7 +1690,7 @@
     </row>
     <row r="46" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G47" s="34" t="s">
+      <c r="G47" s="32" t="s">
         <v>37</v>
       </c>
       <c r="H47" s="1"/>
@@ -1691,7 +1699,7 @@
       <c r="G48" s="6">
         <v>1.40625E-2</v>
       </c>
-      <c r="H48" s="37">
+      <c r="H48" s="35">
         <v>8.6206000000000008E-3</v>
       </c>
     </row>
@@ -1705,7 +1713,7 @@
     </row>
     <row r="51" spans="7:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="7:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="32" t="s">
         <v>44</v>
       </c>
       <c r="H52" s="1"/>

--- a/TP4_Cuadripolos/TestDeCorrientesCambiadasCuadripolos.xlsx
+++ b/TP4_Cuadripolos/TestDeCorrientesCambiadasCuadripolos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanbautista/Desktop/Teoria_De_Circuitos/Labo_TC1/TP4_Cuadripolos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B70CF26-E0D4-1B49-80AF-12A1BA6DAC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B205F-D69F-104D-8D57-23DE1DB7E455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="860" windowWidth="22920" windowHeight="17500" xr2:uid="{5B2A29B3-2CF8-994E-8850-D83F2CE44699}"/>
   </bookViews>
@@ -568,16 +568,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831856AF-2CD5-6A4F-8D20-CCA7C8A9234E}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="65" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,14 +960,14 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="O2" s="36" t="s">
+      <c r="M2" s="40"/>
+      <c r="O2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="36"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1113,7 +1113,7 @@
         <f>IMDIV(B8,C8)</f>
         <v>1,46800946372627+0,653599923555336i</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="38">
         <f>-IMDIV(B9,E9)</f>
         <v>107.037037037037</v>
       </c>
@@ -1145,7 +1145,7 @@
         <f>IMDIV(D8,C8)</f>
         <v>0,00631641003738218+0,00752760435434833i</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="39">
         <f>-IMDIV(D9,E9)</f>
         <v>1.07037037037037</v>
       </c>
@@ -1200,7 +1200,7 @@
         <f>IMDIV(D13,B13)</f>
         <v>0,01</v>
       </c>
-      <c r="H13" s="38" t="str">
+      <c r="H13" s="36" t="str">
         <f>IMDIV(D14,C14)</f>
         <v>-0,00789926284142395-0,000552370267204607i</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="39" t="str">
+      <c r="G14" s="37" t="str">
         <f>IMDIV(E13,B13)</f>
         <v>-0,00934256055363322</v>
       </c>
@@ -1251,10 +1251,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="19"/>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -1277,14 +1277,14 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="1"/>
-      <c r="L19" s="36" t="s">
+      <c r="L19" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="O19" s="36" t="s">
+      <c r="M19" s="40"/>
+      <c r="O19" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="36"/>
+      <c r="P19" s="40"/>
     </row>
     <row r="20" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -1430,7 +1430,7 @@
         <f>IMDIV(B25,C25)</f>
         <v>1,32442138928839+0,704207344178832i</v>
       </c>
-      <c r="H25" s="40" t="str">
+      <c r="H25" s="38" t="str">
         <f>IMPRODUCT(IMDIV(B26,E26),-1)</f>
         <v>468,206808519501+143,145186632252i</v>
       </c>
@@ -1466,7 +1466,7 @@
         <f>IMDIV(D25,C25)</f>
         <v>0,0027047568751405+0,00580036983703456i</v>
       </c>
-      <c r="H26" s="41" t="str">
+      <c r="H26" s="39" t="str">
         <f>IMPRODUCT(-1,IMDIV(D26,E26))</f>
         <v>1,73783086986291+1,30954949037886i</v>
       </c>
@@ -1527,7 +1527,7 @@
         <f>IMDIV(D30,B30)</f>
         <v>0,00417641164793738+0,00152008952589187i</v>
       </c>
-      <c r="H30" s="38" t="str">
+      <c r="H30" s="36" t="str">
         <f>IMDIV(D31,C31)</f>
         <v>-0,00262732804846232+0,000322595320778334i</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="39" t="str">
+      <c r="G31" s="37" t="str">
         <f>IMDIV(E30,B30)</f>
         <v>-0,0019532368381598+0,000597164429580754i</v>
       </c>
@@ -1661,7 +1661,7 @@
         <f>IMSUM(G13,G30)</f>
         <v>0,0141764116479374+0,00152008952589187i</v>
       </c>
-      <c r="H44" s="38" t="str">
+      <c r="H44" s="36" t="str">
         <f>IMSUM(H13,H30)</f>
         <v>-0,0105265908898863-0,000229774946426273i</v>
       </c>
@@ -1673,7 +1673,7 @@
       </c>
     </row>
     <row r="45" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G45" s="39" t="str">
+      <c r="G45" s="37" t="str">
         <f>IMSUM(G14,G31)</f>
         <v>-0,011295797391793+0,000597164429580754i</v>
       </c>
